--- a/Test Open Xml/testdata/testsetrowvalues.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="Rb7638445ad344d35"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R0117c57d49d94f5d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -56,7 +56,7 @@
         <x:v>4.56000000</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>45957.63053918426880</x:v>
+        <x:v>45959.40951641035640</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/Test Open Xml/testdata/testsetrowvalues.xlsx
+++ b/Test Open Xml/testdata/testsetrowvalues.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R0117c57d49d94f5d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CAN1" sheetId="1" r:id="R42b55c14b8724a1b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -56,7 +56,7 @@
         <x:v>4.56000000</x:v>
       </x:c>
       <x:c r="F2" s="1" t="n">
-        <x:v>45959.40951641035640</x:v>
+        <x:v>45965.47030153891680</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
